--- a/biology/Botanique/Cardamine_à_sept_folioles/Cardamine_à_sept_folioles.xlsx
+++ b/biology/Botanique/Cardamine_à_sept_folioles/Cardamine_à_sept_folioles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cardamine_%C3%A0_sept_folioles</t>
+          <t>Cardamine_à_sept_folioles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cardamine heptaphylla
 La Cardamine à sept folioles (Cardamine heptaphylla) est une espèce de plantes herbacées relativement rare, poussant dans les forêts, le plus souvent en zone de moyenne montagne. Elle se reconnaît notamment à ses feuilles portant presque toujours sept grandes folioles (parfois cinq ou neuf). Ses fleurs, à quatre pétales aux couleurs allant du blanc au lilas, sont caractéristiques de la famille des Brassicacées (ou Crucifères), à laquelle elle appartient.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cardamine_%C3%A0_sept_folioles</t>
+          <t>Cardamine_à_sept_folioles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, elle est protégée dans les régions Limousin, Centre, Poitou-Charentes et Picardie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cardamine_%C3%A0_sept_folioles</t>
+          <t>Cardamine_à_sept_folioles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est appelée Cardamine heptaphylla (syn. Dentaria pinnata) en raison des sept folioles de ses feuilles (heptaphylla = à sept feuilles). Le botaniste Dominique Villars l'avait d'abord classée dans le genre Dentaria, ce qui explique qu'elle soit parfois appelée « dentaire à sept folioles » ou encore « dentaire pennée ».
-Écologie et habitat
-Plante vivace poussant presque toujours dans les hêtraies, parfois en plaine (plateau de Langres), mais le plus souvent en montagne, jusqu'à 1 600 mètres. On la rencontre dans les Pyrénées, le Massif central, le Jura, les Alpes occidentales et les Apennins. Elle a une préférence pour les sols calcaires.
 </t>
         </is>
       </c>
@@ -558,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cardamine_%C3%A0_sept_folioles</t>
+          <t>Cardamine_à_sept_folioles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,19 +587,131 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace poussant presque toujours dans les hêtraies, parfois en plaine (plateau de Langres), mais le plus souvent en montagne, jusqu'à 1 600 mètres. On la rencontre dans les Pyrénées, le Massif central, le Jura, les Alpes occidentales et les Apennins. Elle a une préférence pour les sols calcaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cardamine_à_sept_folioles</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cardamine_%C3%A0_sept_folioles</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Morphologie générale et végétative
-Plante herbacée de taille moyenne (30 à 60 cm), glabre, à tige simple érigée. Les feuilles, alternes, sont peu nombreuses mais très grandes. Elles sont imparipennées, portant de 5 à 9 grandes folioles opposées, ovales à lancéolées, à limbe denté. Les folioles sont parfois si rapprochées qu'on a l'impression que la feuille est palmée.
-Morphologie florale
-Floraison : d'avril à juin.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée de taille moyenne (30 à 60 cm), glabre, à tige simple érigée. Les feuilles, alternes, sont peu nombreuses mais très grandes. Elles sont imparipennées, portant de 5 à 9 grandes folioles opposées, ovales à lancéolées, à limbe denté. Les folioles sont parfois si rapprochées qu'on a l'impression que la feuille est palmée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cardamine_à_sept_folioles</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cardamine_%C3%A0_sept_folioles</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Floraison : d'avril à juin.
 Pollinisation : entomogame
 Inflorescence en racème lâche, chaque fleur étant portée par un assez long pédicelle. Petit calice tubulé à quatre dents. Corolle (1 à 2 cm) à quatre pétales larges et un peu froissés, d'une couleur variable allant du blanc au rose et au lilas, les différences de teintes étant souvent présentes sur la même inflorescence.
-Fruit et graines
-Dissémination : barochore.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cardamine_à_sept_folioles</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cardamine_%C3%A0_sept_folioles</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dissémination : barochore.
 Les fruits sont des siliques.
 </t>
         </is>
